--- a/API_Automation_Suite.xlsx
+++ b/API_Automation_Suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
   <si>
     <t xml:space="preserve">SuiteNames</t>
   </si>
@@ -35,13 +35,10 @@
     <t xml:space="preserve">FolderAPI</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">CompanyService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">CV Preview</t>
@@ -656,7 +653,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -685,31 +682,31 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +731,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
@@ -763,334 +760,334 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1117,8 +1114,8 @@
   </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1140,915 +1137,915 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="AA3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AA4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="AA5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="Z6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="Z11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2082,7 @@
       <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.99609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
@@ -2096,168 +2093,168 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2279,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.98046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.98828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="16.72"/>
@@ -2293,168 +2290,168 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/API_Automation_Suite.xlsx
+++ b/API_Automation_Suite.xlsx
@@ -1,474 +1,456 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="APITestSuites" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="FolderAPI" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CompanyService" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="VideoKYC" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="zipp" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="APITestSuites" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="FolderAPI" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="CompanyService" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="VideoKYC" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="zipp" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
   <si>
-    <t xml:space="preserve">SuiteNames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FolderAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompanyService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV Preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VideoKYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zipp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCaseName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DependOnTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RandomValues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RequestType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasePath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RequestHeaders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RequestCookies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QueryParameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PathParameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RequestBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RequestParameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiPartData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseCookiesToBeSaved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseHeadersToBeSaved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseBodyFieldToBeSaved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseCookieValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseCookieExpressionValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseHeaderValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseHeaderExpressionValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseBodySchema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseBodyParameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseBodyExpressionValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate rlogin API.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnd=String(12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.naukri.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/recruit/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppId=121;SystemId=jobseeker;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_did=%%rnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">token=auth_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test=naukri.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bs_rnd*len=8;bs_rnd*typeof=String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server=nginx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loginService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate login service API.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://login.recruit.naukri.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Login/loginService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username=company16@yopmail.com;password=P@ssw0rd100;g-recaptcha-response='';URL=https://recruit.naukri.com/;isIE7=false;csrf=%%token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strUNID=UNID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER=deleted;ERV=deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content-Type=application/json; charset=utf-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createFolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate create folder API.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foldername=String(11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://resdex.naukri.com/cloudgateway-resdex/recruiter-data-directories-services/v0/v2</t>
+    <t>SuiteNames</t>
+  </si>
+  <si>
+    <t>Runables</t>
+  </si>
+  <si>
+    <t>FolderAPI</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>CompanyService</t>
+  </si>
+  <si>
+    <t>CV Preview</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>VideoKYC</t>
+  </si>
+  <si>
+    <t>zipp</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>DependOnTest</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>RandomValues</t>
+  </si>
+  <si>
+    <t>RequestType</t>
+  </si>
+  <si>
+    <t>BaseURI</t>
+  </si>
+  <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>RequestHeaders</t>
+  </si>
+  <si>
+    <t>RequestCookies</t>
+  </si>
+  <si>
+    <t>QueryParameters</t>
+  </si>
+  <si>
+    <t>PathParameters</t>
+  </si>
+  <si>
+    <t>RequestBody</t>
+  </si>
+  <si>
+    <t>RequestParameters</t>
+  </si>
+  <si>
+    <t>MultiPartData</t>
+  </si>
+  <si>
+    <t>ResponseCode</t>
+  </si>
+  <si>
+    <t>ResponseType</t>
+  </si>
+  <si>
+    <t>ResponseCookiesToBeSaved</t>
+  </si>
+  <si>
+    <t>ResponseHeadersToBeSaved</t>
+  </si>
+  <si>
+    <t>ResponseBodyFieldToBeSaved</t>
+  </si>
+  <si>
+    <t>ResponseCookieValidation</t>
+  </si>
+  <si>
+    <t>ResponseCookieExpressionValidation</t>
+  </si>
+  <si>
+    <t>ResponseHeaderValidation</t>
+  </si>
+  <si>
+    <t>ResponseHeaderExpressionValidation</t>
+  </si>
+  <si>
+    <t>ResponseBodySchema</t>
+  </si>
+  <si>
+    <t>ResponseBody</t>
+  </si>
+  <si>
+    <t>ResponseBodyParameters</t>
+  </si>
+  <si>
+    <t>ResponseBodyExpressionValidation</t>
+  </si>
+  <si>
+    <t>rLogin</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>This test is to validate rlogin API.</t>
+  </si>
+  <si>
+    <t>rnd=String(12)</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com</t>
+  </si>
+  <si>
+    <t>/recruit/login</t>
+  </si>
+  <si>
+    <t>AppId=121;SystemId=jobseeker;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>_did=%%rnd</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>token=auth_token</t>
+  </si>
+  <si>
+    <t>test=naukri.com</t>
+  </si>
+  <si>
+    <t>bs_rnd*len=8;bs_rnd*typeof=String</t>
+  </si>
+  <si>
+    <t>Server=nginx</t>
+  </si>
+  <si>
+    <t>loginService</t>
+  </si>
+  <si>
+    <t>This test is to validate login service API.</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>https://login.recruit.naukri.com</t>
+  </si>
+  <si>
+    <t>/Login/loginService</t>
+  </si>
+  <si>
+    <t>username=company16@yopmail.com;password=P@ssw0rd100;g-recaptcha-response='';URL=https://recruit.naukri.com/;isIE7=false;csrf=%%token</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>strUNID=UNID</t>
+  </si>
+  <si>
+    <t>ER=deleted;ERV=deleted</t>
+  </si>
+  <si>
+    <t>Content-Type=application/json; charset=utf-8</t>
+  </si>
+  <si>
+    <t>createFolder</t>
+  </si>
+  <si>
+    <t>This test is to validate create folder API.</t>
+  </si>
+  <si>
+    <t>foldername=String(11)</t>
+  </si>
+  <si>
+    <t>https://resdex.naukri.com/cloudgateway-resdex/recruiter-data-directories-services/v0/v2</t>
   </si>
   <si>
     <t xml:space="preserve">/companies/{companyID}/recruiters/{recruiterID}/folders </t>
   </si>
   <si>
-    <t xml:space="preserve">_did=%%rnd;UNID=%%strUNID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">companyID=6511804;recruiterID=5565791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"allUsers":[],"sharedWith":[],"folderName":"%%foldername"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strfolderId=folderId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"folderId":%%strfolderId,"folderName":"%%foldername"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">folderName*len&gt;0;folderName*len&lt;10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetCity_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Get City API with city id value as 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/cities/{cityID}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppId=114;SystemId=naukriIndia;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityID=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompanyService\\sample.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"cityId":1,"city":"Mathura_23","stateId":100,"countryId":1000,"stdCode":10000,"gulfCityId":"180.28","gulfCountryId":180}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetCity_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Get City API with city id value as 2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityID=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompanyService\\sample.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"cityId":2,"city":"%%cityname","stateId":31,"countryId":66,"stdCode":562,"gulfCityId":"80.29","gulfCountryId":80}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityname=Agra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetCity_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Get City API with city id value as 3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityID=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "cityId": {       "type": "integer"     },     "city": {       "type": "string"     },     "stateId": {       "type": "integer"     },     "countryId": {       "type": "integer"     },     "stdCode": {       "type": "integer"     },     "gulfCityId": {       "type": "string"     },     "gulfCountryId": {       "type": "integer"     }   },   "required": [     "cityId",     "city",     "stateId",     "countryId",     "stdCode",     "gulfCityId",     "gulfCountryId"   ] }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompanyServices\\getcity3.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stateId=11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetCity_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Get City API with city id value as 4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityID=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompanyServices\\getcity4.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cityid=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetCity_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Get City API with city id value as 5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityID=5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city=Aizawl;stdCode=389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PutCity_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Put City API with city id value as 5000.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/cities/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"cityId":5000,"city": "Sumant", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PutCity_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Put City API with city id value as 100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"cityId":%%cityid,"city": "%%cityname", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityid=100;cityname=gurugram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PutCity_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Put City API with city id value as 90.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityid=90;cityname=delhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PutCity_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Put City API with city id value as 80.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cityid=80;cityname=noida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate Get State API with state id value as 31.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/states/{stateId}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stateId=31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "stateId": {       "type": "integer"    },     "state": {       "type": "string"    },     "countryId": {       "type": "integer"    },     "gstnStateId": {       "type": "string"    },     "igst": {       "type": "number"    },     "cgst": {       "type": "number"     },     "sgst": {       "type": "number"     }   },   "required": [     "stateId",     "state",     "countryId",     "gstnStateId",     "igst",     "cgst",     "sgst"   ] }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"stateId":31,"state":"Uttar Pradesh","countryId":66,"gstnStateId":"9","igst":18.0,"cgst":9.0,"sgst":9.0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uploadImage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate post API for upload image.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://v2.convertapi.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content-Type=multipart/form-data;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file=VideoKYC\\files\\Naukri_[3y_0m].doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zipp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to validate get API.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://api.zippopotam.us/us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/33162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"post code": "33162", "country": "United States", "country abbreviation": "US", "places": [{"place name": "Miami", "longitude": "-80.183", "state": "Florida", "state abbreviation": "FL", "latitude": "25.9286"}]}</t>
+    <t>_did=%%rnd;UNID=%%strUNID</t>
+  </si>
+  <si>
+    <t>companyID=6511804;recruiterID=5565791</t>
+  </si>
+  <si>
+    <t>{"allUsers":[],"sharedWith":[],"folderName":"%%foldername"}</t>
+  </si>
+  <si>
+    <t>strfolderId=folderId</t>
+  </si>
+  <si>
+    <t>{"folderId":%%strfolderId,"folderName":"%%foldername"}</t>
+  </si>
+  <si>
+    <t>folderName*len&gt;0;folderName*len&lt;10</t>
+  </si>
+  <si>
+    <t>GetCity_1</t>
+  </si>
+  <si>
+    <t>This test is to validate Get City API with city id value as 1.</t>
+  </si>
+  <si>
+    <t>http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor</t>
+  </si>
+  <si>
+    <t>/cities/{cityID}</t>
+  </si>
+  <si>
+    <t>AppId=114;SystemId=naukriIndia;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>cityID=1</t>
+  </si>
+  <si>
+    <t>CompanyService\\sample.txt</t>
+  </si>
+  <si>
+    <t>{"cityId":1,"city":"Mathura_23","stateId":100,"countryId":1000,"stdCode":10000,"gulfCityId":"180.28","gulfCountryId":180}</t>
+  </si>
+  <si>
+    <t>GetCity_2</t>
+  </si>
+  <si>
+    <t>This test is to validate Get City API with city id value as 2.</t>
+  </si>
+  <si>
+    <t>cityID=2</t>
+  </si>
+  <si>
+    <t>CompanyService\\sample.json</t>
+  </si>
+  <si>
+    <t>{"cityId":2,"city":"%%cityname","stateId":31,"countryId":66,"stdCode":562,"gulfCityId":"80.29","gulfCountryId":80}</t>
+  </si>
+  <si>
+    <t>cityname=Agra</t>
+  </si>
+  <si>
+    <t>GetCity_3</t>
+  </si>
+  <si>
+    <t>This test is to validate Get City API with city id value as 3.</t>
+  </si>
+  <si>
+    <t>cityID=3</t>
+  </si>
+  <si>
+    <t>{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "cityId": {       "type": "integer"     },     "city": {       "type": "string"     },     "stateId": {       "type": "integer"     },     "countryId": {       "type": "integer"     },     "stdCode": {       "type": "integer"     },     "gulfCityId": {       "type": "string"     },     "gulfCountryId": {       "type": "integer"     }   },   "required": [     "cityId",     "city",     "stateId",     "countryId",     "stdCode",     "gulfCityId",     "gulfCountryId"   ] }</t>
+  </si>
+  <si>
+    <t>CompanyServices\\getcity3.txt</t>
+  </si>
+  <si>
+    <t>stateId=11</t>
+  </si>
+  <si>
+    <t>GetCity_4</t>
+  </si>
+  <si>
+    <t>This test is to validate Get City API with city id value as 4.</t>
+  </si>
+  <si>
+    <t>cityID=4</t>
+  </si>
+  <si>
+    <t>CompanyServices\\getcity4.json</t>
+  </si>
+  <si>
+    <t>Cityid=4</t>
+  </si>
+  <si>
+    <t>GetCity_5</t>
+  </si>
+  <si>
+    <t>This test is to validate Get City API with city id value as 5.</t>
+  </si>
+  <si>
+    <t>cityID=5</t>
+  </si>
+  <si>
+    <t>city=Aizawl;stdCode=389</t>
+  </si>
+  <si>
+    <t>PutCity_1</t>
+  </si>
+  <si>
+    <t>This test is to validate Put City API with city id value as 5000.</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/cities/</t>
+  </si>
+  <si>
+    <t>{"cityId":5000,"city": "Sumant", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
+  </si>
+  <si>
+    <t>PutCity_2</t>
+  </si>
+  <si>
+    <t>This test is to validate Put City API with city id value as 100.</t>
+  </si>
+  <si>
+    <t>{"cityId":%%cityid,"city": "%%cityname", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
+  </si>
+  <si>
+    <t>cityid=100;cityname=gurugram</t>
+  </si>
+  <si>
+    <t>PutCity_3</t>
+  </si>
+  <si>
+    <t>This test is to validate Put City API with city id value as 90.</t>
+  </si>
+  <si>
+    <t>cityid=90;cityname=delhi</t>
+  </si>
+  <si>
+    <t>PutCity_4</t>
+  </si>
+  <si>
+    <t>This test is to validate Put City API with city id value as 80.</t>
+  </si>
+  <si>
+    <t>cityid=80;cityname=noida</t>
+  </si>
+  <si>
+    <t>GetState</t>
+  </si>
+  <si>
+    <t>This test is to validate Get State API with state id value as 31.</t>
+  </si>
+  <si>
+    <t>/states/{stateId}</t>
+  </si>
+  <si>
+    <t>stateId=31</t>
+  </si>
+  <si>
+    <t>{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "stateId": {       "type": "integer"    },     "state": {       "type": "string"    },     "countryId": {       "type": "integer"    },     "gstnStateId": {       "type": "string"    },     "igst": {       "type": "number"    },     "cgst": {       "type": "number"     },     "sgst": {       "type": "number"     }   },   "required": [     "stateId",     "state",     "countryId",     "gstnStateId",     "igst",     "cgst",     "sgst"   ] }</t>
+  </si>
+  <si>
+    <t>{"stateId":31,"state":"Uttar Pradesh","countryId":66,"gstnStateId":"9","igst":18.0,"cgst":9.0,"sgst":9.0}</t>
+  </si>
+  <si>
+    <t>uploadImage</t>
+  </si>
+  <si>
+    <t>This test is to validate post API for upload image.</t>
+  </si>
+  <si>
+    <t>https://v2.convertapi.com</t>
+  </si>
+  <si>
+    <t>/upload</t>
+  </si>
+  <si>
+    <t>Content-Type=multipart/form-data;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*</t>
+  </si>
+  <si>
+    <t>file=VideoKYC\\files\\Naukri_[3y_0m].doc</t>
+  </si>
+  <si>
+    <t>zipp1</t>
+  </si>
+  <si>
+    <t>This test is to validate get API.</t>
+  </si>
+  <si>
+    <t>https://api.zippopotam.us/us</t>
+  </si>
+  <si>
+    <t>/33162</t>
+  </si>
+  <si>
+    <t>{"post code": "33162", "country": "United States", "country abbreviation": "US", "places": [{"place name": "Miami", "longitude": "-80.183", "state": "Florida", "state abbreviation": "FL", "latitude": "25.9286"}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="1"/>
+      <color rgb="FF2A00FF"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -504,14 +486,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -519,149 +501,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF2A00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF77BC65"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.45703125" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
+    <col min="1" max="1" width="22.62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -677,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -685,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -693,27 +586,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048576" ht="12.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -721,44 +614,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.72265625" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="35.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="24.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="31.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="40.85"/>
+    <col min="1" max="1" width="16.17" customWidth="1"/>
+    <col min="2" max="2" width="16.35" customWidth="1"/>
+    <col min="3" max="3" width="34.08" customWidth="1"/>
+    <col min="4" max="4" width="24.8" customWidth="1"/>
+    <col min="5" max="5" width="11.17" customWidth="1"/>
+    <col min="6" max="6" width="16.99" customWidth="1"/>
+    <col min="7" max="7" width="24.45" customWidth="1"/>
+    <col min="8" max="8" width="22.16" customWidth="1"/>
+    <col min="9" max="9" width="27.08" customWidth="1"/>
+    <col min="10" max="10" width="16.63" customWidth="1"/>
+    <col min="11" max="11" width="20.17" customWidth="1"/>
+    <col min="12" max="12" width="15.62" customWidth="1"/>
+    <col min="13" max="13" width="19.08" customWidth="1"/>
+    <col min="14" max="14" width="21.44" customWidth="1"/>
+    <col min="19" max="19" width="25.71" customWidth="1"/>
+    <col min="20" max="20" width="27.84" customWidth="1"/>
+    <col min="21" max="21" width="35.19" customWidth="1"/>
+    <col min="22" max="22" width="24.95" customWidth="1"/>
+    <col min="23" max="23" width="32.87" customWidth="1"/>
+    <col min="24" max="24" width="20.71" customWidth="1"/>
+    <col min="25" max="25" width="24" customWidth="1"/>
+    <col min="26" max="26" width="31.62" customWidth="1"/>
+    <col min="27" max="27" width="40.85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -841,7 +731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -924,7 +814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1007,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1092,15 +982,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.naukri.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://login.recruit.naukri.com"/>
-    <hyperlink ref="J3" r:id="rId3" display="username=company16@yopmail.com;password=P@ssw0rd100;g-recaptcha-response='';URL=https://recruit.naukri.com/;isIE7=false;csrf=%%token"/>
-    <hyperlink ref="F4" r:id="rId4" display="https://resdex.naukri.com/cloudgateway-resdex/recruiter-data-directories-services/v0/v2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1108,34 +997,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.29296875" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="19.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.9"/>
+    <col min="1" max="1" width="16.35" customWidth="1"/>
+    <col min="2" max="2" width="19.54" customWidth="1"/>
+    <col min="3" max="3" width="51.71" customWidth="1"/>
+    <col min="12" max="12" width="17.44" customWidth="1"/>
+    <col min="13" max="13" width="19.89" customWidth="1"/>
+    <col min="14" max="14" width="21.97" customWidth="1"/>
+    <col min="17" max="17" width="18.26" customWidth="1"/>
+    <col min="18" max="18" width="25.62" customWidth="1"/>
+    <col min="19" max="19" width="21.29" customWidth="1"/>
+    <col min="20" max="24" width="19.81" customWidth="1"/>
+    <col min="25" max="25" width="18.72" customWidth="1"/>
+    <col min="26" max="26" width="23.28" customWidth="1"/>
+    <col min="27" max="27" width="27.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -1301,7 +1187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -1384,7 +1270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -1467,7 +1353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -1550,7 +1436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
@@ -1633,7 +1519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
@@ -1716,7 +1602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>106</v>
       </c>
@@ -1799,7 +1685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
@@ -1882,7 +1768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -1965,7 +1851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>116</v>
       </c>
@@ -2050,21 +1936,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F3" r:id="rId2" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F4" r:id="rId3" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F5" r:id="rId4" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F6" r:id="rId5" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F7" r:id="rId6" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F8" r:id="rId7" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F9" r:id="rId8" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F10" r:id="rId9" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
-    <hyperlink ref="F11" r:id="rId10" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2072,26 +1957,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="20.89"/>
+    <col min="1" max="1" width="14.54" customWidth="1"/>
+    <col min="2" max="2" width="16.35" customWidth="1"/>
+    <col min="3" max="3" width="34.44" customWidth="1"/>
+    <col min="26" max="26" width="22.43" customWidth="1"/>
+    <col min="27" max="27" width="20.89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -2258,10 +2140,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2269,26 +2150,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.98828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.99609375" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="22.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="26.26"/>
+    <col min="3" max="3" width="37.09" customWidth="1"/>
+    <col min="20" max="24" width="16.72" customWidth="1"/>
+    <col min="25" max="25" width="18.17" customWidth="1"/>
+    <col min="26" max="26" width="22.16" customWidth="1"/>
+    <col min="27" max="27" width="26.26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -2371,7 +2249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -2456,12 +2334,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://api.zippopotam.us/us"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/API_Automation_Suite.xlsx
+++ b/API_Automation_Suite.xlsx
@@ -1,456 +1,480 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="APITestSuites" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="FolderAPI" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="CompanyService" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="VideoKYC" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="zipp" state="visible" r:id="rId8"/>
+    <sheet name="APITestSuites" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="FolderAPI" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CompanyService" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="VideoKYC" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="zipp" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
   <si>
-    <t>SuiteNames</t>
-  </si>
-  <si>
-    <t>Runables</t>
-  </si>
-  <si>
-    <t>FolderAPI</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>CompanyService</t>
-  </si>
-  <si>
-    <t>CV Preview</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>VideoKYC</t>
-  </si>
-  <si>
-    <t>zipp</t>
-  </si>
-  <si>
-    <t>TestCaseName</t>
-  </si>
-  <si>
-    <t>DependOnTest</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>RandomValues</t>
-  </si>
-  <si>
-    <t>RequestType</t>
-  </si>
-  <si>
-    <t>BaseURI</t>
-  </si>
-  <si>
-    <t>BasePath</t>
-  </si>
-  <si>
-    <t>RequestHeaders</t>
-  </si>
-  <si>
-    <t>RequestCookies</t>
-  </si>
-  <si>
-    <t>QueryParameters</t>
-  </si>
-  <si>
-    <t>PathParameters</t>
-  </si>
-  <si>
-    <t>RequestBody</t>
-  </si>
-  <si>
-    <t>RequestParameters</t>
-  </si>
-  <si>
-    <t>MultiPartData</t>
-  </si>
-  <si>
-    <t>ResponseCode</t>
-  </si>
-  <si>
-    <t>ResponseType</t>
-  </si>
-  <si>
-    <t>ResponseCookiesToBeSaved</t>
-  </si>
-  <si>
-    <t>ResponseHeadersToBeSaved</t>
-  </si>
-  <si>
-    <t>ResponseBodyFieldToBeSaved</t>
-  </si>
-  <si>
-    <t>ResponseCookieValidation</t>
-  </si>
-  <si>
-    <t>ResponseCookieExpressionValidation</t>
-  </si>
-  <si>
-    <t>ResponseHeaderValidation</t>
-  </si>
-  <si>
-    <t>ResponseHeaderExpressionValidation</t>
-  </si>
-  <si>
-    <t>ResponseBodySchema</t>
-  </si>
-  <si>
-    <t>ResponseBody</t>
-  </si>
-  <si>
-    <t>ResponseBodyParameters</t>
-  </si>
-  <si>
-    <t>ResponseBodyExpressionValidation</t>
-  </si>
-  <si>
-    <t>rLogin</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>This test is to validate rlogin API.</t>
-  </si>
-  <si>
-    <t>rnd=String(12)</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>https://www.naukri.com</t>
-  </si>
-  <si>
-    <t>/recruit/login</t>
-  </si>
-  <si>
-    <t>AppId=121;SystemId=jobseeker;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
-  </si>
-  <si>
-    <t>_did=%%rnd</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>token=auth_token</t>
-  </si>
-  <si>
-    <t>test=naukri.com</t>
-  </si>
-  <si>
-    <t>bs_rnd*len=8;bs_rnd*typeof=String</t>
-  </si>
-  <si>
-    <t>Server=nginx</t>
-  </si>
-  <si>
-    <t>loginService</t>
-  </si>
-  <si>
-    <t>This test is to validate login service API.</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>https://login.recruit.naukri.com</t>
-  </si>
-  <si>
-    <t>/Login/loginService</t>
-  </si>
-  <si>
-    <t>username=company16@yopmail.com;password=P@ssw0rd100;g-recaptcha-response='';URL=https://recruit.naukri.com/;isIE7=false;csrf=%%token</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>strUNID=UNID</t>
-  </si>
-  <si>
-    <t>ER=deleted;ERV=deleted</t>
-  </si>
-  <si>
-    <t>Content-Type=application/json; charset=utf-8</t>
-  </si>
-  <si>
-    <t>createFolder</t>
-  </si>
-  <si>
-    <t>This test is to validate create folder API.</t>
-  </si>
-  <si>
-    <t>foldername=String(11)</t>
-  </si>
-  <si>
-    <t>https://resdex.naukri.com/cloudgateway-resdex/recruiter-data-directories-services/v0/v2</t>
+    <t xml:space="preserve">SuiteNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FolderAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanyService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoKYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zipp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCaseName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DependOnTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RandomValues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BasePath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestHeaders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestCookies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QueryParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PathParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPartData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCookiesToBeSaved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseHeadersToBeSaved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseBodyFieldToBeSaved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCookieValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseCookieExpressionValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseHeaderValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseHeaderExpressionValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseBodySchema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseBodyParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseBodyExpressionValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate rlogin API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnd=String(12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.naukri.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/recruit/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppId=121;SystemId=jobseeker;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_did=%%rnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">token=auth_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test=naukri.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs_rnd*len=8;bs_rnd*typeof=String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server=nginx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loginService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate login service API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://login.recruit.naukri.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Login/loginService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username=company16@yopmail.com;password=P@ssw0rd100;g-recaptcha-response='';URL=https://recruit.naukri.com/;isIE7=false;csrf=%%token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strUNID=UNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER=deleted;ERV=deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content-Type=application/json; charset=utf-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createFolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate create folder API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foldername=String(11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://resdex.naukri.com/cloudgateway-resdex/recruiter-data-directories-services/v0/v2</t>
   </si>
   <si>
     <t xml:space="preserve">/companies/{companyID}/recruiters/{recruiterID}/folders </t>
   </si>
   <si>
-    <t>_did=%%rnd;UNID=%%strUNID</t>
-  </si>
-  <si>
-    <t>companyID=6511804;recruiterID=5565791</t>
-  </si>
-  <si>
-    <t>{"allUsers":[],"sharedWith":[],"folderName":"%%foldername"}</t>
-  </si>
-  <si>
-    <t>strfolderId=folderId</t>
-  </si>
-  <si>
-    <t>{"folderId":%%strfolderId,"folderName":"%%foldername"}</t>
-  </si>
-  <si>
-    <t>folderName*len&gt;0;folderName*len&lt;10</t>
-  </si>
-  <si>
-    <t>GetCity_1</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 1.</t>
-  </si>
-  <si>
-    <t>http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor</t>
-  </si>
-  <si>
-    <t>/cities/{cityID}</t>
-  </si>
-  <si>
-    <t>AppId=114;SystemId=naukriIndia;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
-  </si>
-  <si>
-    <t>cityID=1</t>
-  </si>
-  <si>
-    <t>CompanyService\\sample.txt</t>
-  </si>
-  <si>
-    <t>{"cityId":1,"city":"Mathura_23","stateId":100,"countryId":1000,"stdCode":10000,"gulfCityId":"180.28","gulfCountryId":180}</t>
-  </si>
-  <si>
-    <t>GetCity_2</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 2.</t>
-  </si>
-  <si>
-    <t>cityID=2</t>
-  </si>
-  <si>
-    <t>CompanyService\\sample.json</t>
-  </si>
-  <si>
-    <t>{"cityId":2,"city":"%%cityname","stateId":31,"countryId":66,"stdCode":562,"gulfCityId":"80.29","gulfCountryId":80}</t>
-  </si>
-  <si>
-    <t>cityname=Agra</t>
-  </si>
-  <si>
-    <t>GetCity_3</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 3.</t>
-  </si>
-  <si>
-    <t>cityID=3</t>
-  </si>
-  <si>
-    <t>{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "cityId": {       "type": "integer"     },     "city": {       "type": "string"     },     "stateId": {       "type": "integer"     },     "countryId": {       "type": "integer"     },     "stdCode": {       "type": "integer"     },     "gulfCityId": {       "type": "string"     },     "gulfCountryId": {       "type": "integer"     }   },   "required": [     "cityId",     "city",     "stateId",     "countryId",     "stdCode",     "gulfCityId",     "gulfCountryId"   ] }</t>
-  </si>
-  <si>
-    <t>CompanyServices\\getcity3.txt</t>
-  </si>
-  <si>
-    <t>stateId=11</t>
-  </si>
-  <si>
-    <t>GetCity_4</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 4.</t>
-  </si>
-  <si>
-    <t>cityID=4</t>
-  </si>
-  <si>
-    <t>CompanyServices\\getcity4.json</t>
-  </si>
-  <si>
-    <t>Cityid=4</t>
-  </si>
-  <si>
-    <t>GetCity_5</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 5.</t>
-  </si>
-  <si>
-    <t>cityID=5</t>
-  </si>
-  <si>
-    <t>city=Aizawl;stdCode=389</t>
-  </si>
-  <si>
-    <t>PutCity_1</t>
-  </si>
-  <si>
-    <t>This test is to validate Put City API with city id value as 5000.</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>/cities/</t>
-  </si>
-  <si>
-    <t>{"cityId":5000,"city": "Sumant", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
-  </si>
-  <si>
-    <t>PutCity_2</t>
-  </si>
-  <si>
-    <t>This test is to validate Put City API with city id value as 100.</t>
-  </si>
-  <si>
-    <t>{"cityId":%%cityid,"city": "%%cityname", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
-  </si>
-  <si>
-    <t>cityid=100;cityname=gurugram</t>
-  </si>
-  <si>
-    <t>PutCity_3</t>
-  </si>
-  <si>
-    <t>This test is to validate Put City API with city id value as 90.</t>
-  </si>
-  <si>
-    <t>cityid=90;cityname=delhi</t>
-  </si>
-  <si>
-    <t>PutCity_4</t>
-  </si>
-  <si>
-    <t>This test is to validate Put City API with city id value as 80.</t>
-  </si>
-  <si>
-    <t>cityid=80;cityname=noida</t>
-  </si>
-  <si>
-    <t>GetState</t>
-  </si>
-  <si>
-    <t>This test is to validate Get State API with state id value as 31.</t>
-  </si>
-  <si>
-    <t>/states/{stateId}</t>
-  </si>
-  <si>
-    <t>stateId=31</t>
-  </si>
-  <si>
-    <t>{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "stateId": {       "type": "integer"    },     "state": {       "type": "string"    },     "countryId": {       "type": "integer"    },     "gstnStateId": {       "type": "string"    },     "igst": {       "type": "number"    },     "cgst": {       "type": "number"     },     "sgst": {       "type": "number"     }   },   "required": [     "stateId",     "state",     "countryId",     "gstnStateId",     "igst",     "cgst",     "sgst"   ] }</t>
-  </si>
-  <si>
-    <t>{"stateId":31,"state":"Uttar Pradesh","countryId":66,"gstnStateId":"9","igst":18.0,"cgst":9.0,"sgst":9.0}</t>
-  </si>
-  <si>
-    <t>uploadImage</t>
-  </si>
-  <si>
-    <t>This test is to validate post API for upload image.</t>
-  </si>
-  <si>
-    <t>https://v2.convertapi.com</t>
-  </si>
-  <si>
-    <t>/upload</t>
-  </si>
-  <si>
-    <t>Content-Type=multipart/form-data;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*</t>
-  </si>
-  <si>
-    <t>file=VideoKYC\\files\\Naukri_[3y_0m].doc</t>
-  </si>
-  <si>
-    <t>zipp1</t>
-  </si>
-  <si>
-    <t>This test is to validate get API.</t>
-  </si>
-  <si>
-    <t>https://api.zippopotam.us/us</t>
-  </si>
-  <si>
-    <t>/33162</t>
-  </si>
-  <si>
-    <t>{"post code": "33162", "country": "United States", "country abbreviation": "US", "places": [{"place name": "Miami", "longitude": "-80.183", "state": "Florida", "state abbreviation": "FL", "latitude": "25.9286"}]}</t>
+    <t xml:space="preserve">_did=%%rnd;UNID=%%strUNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">companyID=6511804;recruiterID=5565791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"allUsers":[],"sharedWith":[],"folderName":"%%foldername"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strfolderId=folderId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"folderId":%%strfolderId,"folderName":"%%foldername"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folderName*len&gt;0;folderName*len&lt;10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetCity_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Get City API with city id value as 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/cities/{cityID}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppId=114;SystemId=naukriIndia;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityID=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanyService\\sample.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"cityId":1,"city":"Mathura_23","stateId":100,"countryId":1000,"stdCode":10000,"gulfCityId":"180.28","gulfCountryId":180}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetCity_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Get City API with city id value as 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityID=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanyService\\sample.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"cityId":2,"city":"%%cityname","stateId":31,"countryId":66,"stdCode":562,"gulfCityId":"80.29","gulfCountryId":80}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityname=Agra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetCity_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Get City API with city id value as 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityID=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "cityId": {       "type": "integer"     },     "city": {       "type": "string"     },     "stateId": {       "type": "integer"     },     "countryId": {       "type": "integer"     },     "stdCode": {       "type": "integer"     },     "gulfCityId": {       "type": "string"     },     "gulfCountryId": {       "type": "integer"     }   },   "required": [     "cityId",     "city",     "stateId",     "countryId",     "stdCode",     "gulfCityId",     "gulfCountryId"   ] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanyServices\\getcity3.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stateId=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetCity_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Get City API with city id value as 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityID=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanyServices\\getcity4.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cityid=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetCity_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Get City API with city id value as 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityID=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city=Aizawl;stdCode=389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutCity_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Put City API with city id value as 5000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/cities/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"cityId":5000,"city": "Sumant", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutCity_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Put City API with city id value as 100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"cityId":%%cityid,"city": "%%cityname", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityid=100;cityname=gurugram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutCity_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Put City API with city id value as 90.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityid=90;cityname=delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutCity_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Put City API with city id value as 80.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cityid=80;cityname=noida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate Get State API with state id value as 31.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/states/{stateId}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stateId=31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "stateId": {       "type": "integer"    },     "state": {       "type": "string"    },     "countryId": {       "type": "integer"    },     "gstnStateId": {       "type": "string"    },     "igst": {       "type": "number"    },     "cgst": {       "type": "number"     },     "sgst": {       "type": "number"     }   },   "required": [     "stateId",     "state",     "countryId",     "gstnStateId",     "igst",     "cgst",     "sgst"   ] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"stateId":31,"state":"Uttar Pradesh","countryId":66,"gstnStateId":"9","igst":18.0,"cgst":9.0,"sgst":9.0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uploadImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate post API for upload image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://v2.convertapi.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content-Type=multipart/form-data;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file=VideoKYC\\files\\Naukri_[3y_0m].doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zipp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to validate get API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.zippopotam.us/us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/33162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"post code": "33162", "country": "United States", "country abbreviation": "US", "places": [{"place name": "Miami", "longitude": "-80.183", "state": "Florida", "state abbreviation": "FL", "latitude": "25.9286"}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <charset val="1"/>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <charset val="1"/>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF2A00FF"/>
-      <sz val="10"/>
       <name val="Consolas"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -486,14 +510,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -501,60 +525,149 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF2A00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.45703125" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.45703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.62" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -570,31 +683,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -602,11 +715,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1048576" ht="12.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -614,41 +727,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.72265625" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.17" customWidth="1"/>
-    <col min="2" max="2" width="16.35" customWidth="1"/>
-    <col min="3" max="3" width="34.08" customWidth="1"/>
-    <col min="4" max="4" width="24.8" customWidth="1"/>
-    <col min="5" max="5" width="11.17" customWidth="1"/>
-    <col min="6" max="6" width="16.99" customWidth="1"/>
-    <col min="7" max="7" width="24.45" customWidth="1"/>
-    <col min="8" max="8" width="22.16" customWidth="1"/>
-    <col min="9" max="9" width="27.08" customWidth="1"/>
-    <col min="10" max="10" width="16.63" customWidth="1"/>
-    <col min="11" max="11" width="20.17" customWidth="1"/>
-    <col min="12" max="12" width="15.62" customWidth="1"/>
-    <col min="13" max="13" width="19.08" customWidth="1"/>
-    <col min="14" max="14" width="21.44" customWidth="1"/>
-    <col min="19" max="19" width="25.71" customWidth="1"/>
-    <col min="20" max="20" width="27.84" customWidth="1"/>
-    <col min="21" max="21" width="35.19" customWidth="1"/>
-    <col min="22" max="22" width="24.95" customWidth="1"/>
-    <col min="23" max="23" width="32.87" customWidth="1"/>
-    <col min="24" max="24" width="20.71" customWidth="1"/>
-    <col min="25" max="25" width="24" customWidth="1"/>
-    <col min="26" max="26" width="31.62" customWidth="1"/>
-    <col min="27" max="27" width="40.85" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="35.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="24.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="32.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="31.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="40.85"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -731,7 +847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -814,7 +930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -897,7 +1013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -982,14 +1098,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.naukri.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://login.recruit.naukri.com"/>
+    <hyperlink ref="J3" r:id="rId3" display="username=company16@yopmail.com;password=P@ssw0rd100;g-recaptcha-response='';URL=https://recruit.naukri.com/;isIE7=false;csrf=%%token"/>
+    <hyperlink ref="F4" r:id="rId4" display="https://resdex.naukri.com/cloudgateway-resdex/recruiter-data-directories-services/v0/v2"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -997,31 +1114,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.29296875" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.29296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.35" customWidth="1"/>
-    <col min="2" max="2" width="19.54" customWidth="1"/>
-    <col min="3" max="3" width="51.71" customWidth="1"/>
-    <col min="12" max="12" width="17.44" customWidth="1"/>
-    <col min="13" max="13" width="19.89" customWidth="1"/>
-    <col min="14" max="14" width="21.97" customWidth="1"/>
-    <col min="17" max="17" width="18.26" customWidth="1"/>
-    <col min="18" max="18" width="25.62" customWidth="1"/>
-    <col min="19" max="19" width="21.29" customWidth="1"/>
-    <col min="20" max="24" width="19.81" customWidth="1"/>
-    <col min="25" max="25" width="18.72" customWidth="1"/>
-    <col min="26" max="26" width="23.28" customWidth="1"/>
-    <col min="27" max="27" width="27.9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="19.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -1187,7 +1307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -1270,7 +1390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -1353,7 +1473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -1436,7 +1556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
@@ -1519,7 +1639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
@@ -1602,7 +1722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>106</v>
       </c>
@@ -1685,7 +1805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
@@ -1768,7 +1888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -1851,7 +1971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>116</v>
       </c>
@@ -1936,20 +2056,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F2" r:id="rId1" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F4" r:id="rId3" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F5" r:id="rId4" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F6" r:id="rId5" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F7" r:id="rId6" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F8" r:id="rId7" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F9" r:id="rId8" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F10" r:id="rId9" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
+    <hyperlink ref="F11" r:id="rId10" display="http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1957,23 +2078,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.54" customWidth="1"/>
-    <col min="2" max="2" width="16.35" customWidth="1"/>
-    <col min="3" max="3" width="34.44" customWidth="1"/>
-    <col min="26" max="26" width="22.43" customWidth="1"/>
-    <col min="27" max="27" width="20.89" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="20.89"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -2056,7 +2180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -2140,9 +2264,10 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2150,23 +2275,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.99609375" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="37.09" customWidth="1"/>
-    <col min="20" max="24" width="16.72" customWidth="1"/>
-    <col min="25" max="25" width="18.17" customWidth="1"/>
-    <col min="26" max="26" width="22.16" customWidth="1"/>
-    <col min="27" max="27" width="26.26" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="26.26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -2249,7 +2377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -2334,11 +2462,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://api.zippopotam.us/us"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/API_Automation_Suite.xlsx
+++ b/API_Automation_Suite.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="APITestSuites" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="FolderAPI" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="CompanyService" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="VideoKYC" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="zipp" state="visible" r:id="rId8"/>
+    <sheet sheetId="3" name="CompanyService" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="VideoKYC" state="visible" r:id="rId6"/>
+    <sheet sheetId="5" name="zipp" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="97">
   <si>
     <t>SuiteNames</t>
   </si>
@@ -26,13 +25,16 @@
     <t>Runables</t>
   </si>
   <si>
-    <t>FolderAPI</t>
+    <t>CompanyService</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>CompanyService</t>
+    <t>CV Preview</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>VideoKYC</t>
@@ -122,268 +124,163 @@
     <t>ResponseBodyExpressionValidation</t>
   </si>
   <si>
-    <t>rLogin</t>
+    <t>GetCity_2</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>This test is to validate rlogin API.</t>
-  </si>
-  <si>
-    <t>rnd=String(12)</t>
+    <t>This test is to validate Get City API with city id value as 2.</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>https://www.naukri.com</t>
-  </si>
-  <si>
-    <t>/recruit/login</t>
-  </si>
-  <si>
-    <t>AppId=121;SystemId=jobseeker;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
-  </si>
-  <si>
-    <t>_did=%%rnd</t>
+    <t>http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor</t>
+  </si>
+  <si>
+    <t>/cities/{cityID}</t>
+  </si>
+  <si>
+    <t>AppId=114;SystemId=naukriIndia;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>cityID=2</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>token=auth_token</t>
-  </si>
-  <si>
-    <t>test=naukri.com</t>
-  </si>
-  <si>
-    <t>bs_rnd*len=8;bs_rnd*typeof=String</t>
-  </si>
-  <si>
-    <t>Server=nginx</t>
-  </si>
-  <si>
-    <t>loginService</t>
-  </si>
-  <si>
-    <t>This test is to validate login service API.</t>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>CompanyService\\sample.json</t>
+  </si>
+  <si>
+    <t>{"cityId":2,"city":"%%cityname","stateId":31,"countryId":66,"stdCode":562,"gulfCityId":"80.29","gulfCountryId":80}</t>
+  </si>
+  <si>
+    <t>cityname=Agra</t>
+  </si>
+  <si>
+    <t>GetCity_3</t>
+  </si>
+  <si>
+    <t>This test is to validate Get City API with city id value as 3.</t>
+  </si>
+  <si>
+    <t>cityID=3</t>
+  </si>
+  <si>
+    <t>{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "cityId": {       "type": "integer"     },     "city": {       "type": "string"     },     "stateId": {       "type": "integer"     },     "countryId": {       "type": "integer"     },     "stdCode": {       "type": "integer"     },     "gulfCityId": {       "type": "string"     },     "gulfCountryId": {       "type": "integer"     }   },   "required": [     "cityId",     "city",     "stateId",     "countryId",     "stdCode",     "gulfCityId",     "gulfCountryId"   ] }</t>
+  </si>
+  <si>
+    <t>CompanyServices\\getcity3.txt</t>
+  </si>
+  <si>
+    <t>stateId=11</t>
+  </si>
+  <si>
+    <t>GetCity_4</t>
+  </si>
+  <si>
+    <t>This test is to validate Get City API with city id value as 4.</t>
+  </si>
+  <si>
+    <t>cityID=4</t>
+  </si>
+  <si>
+    <t>CompanyServices\\getcity4.json</t>
+  </si>
+  <si>
+    <t>Cityid=4</t>
+  </si>
+  <si>
+    <t>GetCity_5</t>
+  </si>
+  <si>
+    <t>This test is to validate Get City API with city id value as 5.</t>
+  </si>
+  <si>
+    <t>cityID=5</t>
+  </si>
+  <si>
+    <t>city=Aizawl;stdCode=389</t>
+  </si>
+  <si>
+    <t>PutCity_1</t>
+  </si>
+  <si>
+    <t>This test is to validate Put City API with city id value as 5000.</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/cities/</t>
+  </si>
+  <si>
+    <t>{"cityId":5000,"city": "Sumant", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
+  </si>
+  <si>
+    <t>PutCity_2</t>
+  </si>
+  <si>
+    <t>This test is to validate Put City API with city id value as 100.</t>
+  </si>
+  <si>
+    <t>{"cityId":%%cityid,"city": "%%cityname", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
+  </si>
+  <si>
+    <t>cityid=100;cityname=gurugram</t>
+  </si>
+  <si>
+    <t>PutCity_3</t>
+  </si>
+  <si>
+    <t>This test is to validate Put City API with city id value as 90.</t>
+  </si>
+  <si>
+    <t>CompanyService\\sample.txt</t>
+  </si>
+  <si>
+    <t>cityid=90;cityname=delhi</t>
+  </si>
+  <si>
+    <t>PutCity_4</t>
+  </si>
+  <si>
+    <t>This test is to validate Put City API with city id value as 80.</t>
+  </si>
+  <si>
+    <t>cityid=80;cityname=noida</t>
+  </si>
+  <si>
+    <t>GetState</t>
+  </si>
+  <si>
+    <t>This test is to validate Get State API with state id value as 31.</t>
+  </si>
+  <si>
+    <t>/states/{stateId}</t>
+  </si>
+  <si>
+    <t>stateId=31</t>
+  </si>
+  <si>
+    <t>{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "stateId": {       "type": "integer"    },     "state": {       "type": "string"    },     "countryId": {       "type": "integer"    },     "gstnStateId": {       "type": "string"    },     "igst": {       "type": "number"    },     "cgst": {       "type": "number"     },     "sgst": {       "type": "number"     }   },   "required": [     "stateId",     "state",     "countryId",     "gstnStateId",     "igst",     "cgst",     "sgst"   ] }</t>
+  </si>
+  <si>
+    <t>{"stateId":31,"state":"Uttar Pradesh","countryId":66,"gstnStateId":"9","igst":18.0,"cgst":9.0,"sgst":9.0}</t>
+  </si>
+  <si>
+    <t>uploadImage</t>
+  </si>
+  <si>
+    <t>This test is to validate post API for upload image.</t>
   </si>
   <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>https://login.recruit.naukri.com</t>
-  </si>
-  <si>
-    <t>/Login/loginService</t>
-  </si>
-  <si>
-    <t>username=company16@yopmail.com;password=P@ssw0rd100;g-recaptcha-response='';URL=https://recruit.naukri.com/;isIE7=false;csrf=%%token</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>strUNID=UNID</t>
-  </si>
-  <si>
-    <t>ER=deleted;ERV=deleted</t>
-  </si>
-  <si>
-    <t>Content-Type=application/json; charset=utf-8</t>
-  </si>
-  <si>
-    <t>createFolder</t>
-  </si>
-  <si>
-    <t>This test is to validate create folder API.</t>
-  </si>
-  <si>
-    <t>foldername=String(11)</t>
-  </si>
-  <si>
-    <t>https://resdex.naukri.com/cloudgateway-resdex/recruiter-data-directories-services/v0/v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/companies/{companyID}/recruiters/{recruiterID}/folders </t>
-  </si>
-  <si>
-    <t>_did=%%rnd;UNID=%%strUNID</t>
-  </si>
-  <si>
-    <t>companyID=6511804;recruiterID=5565791</t>
-  </si>
-  <si>
-    <t>{"allUsers":[],"sharedWith":[],"folderName":"%%foldername"}</t>
-  </si>
-  <si>
-    <t>strfolderId=folderId</t>
-  </si>
-  <si>
-    <t>{"folderId":%%strfolderId,"folderName":"%%foldername"}</t>
-  </si>
-  <si>
-    <t>folderName*len&gt;0;folderName*len&lt;10</t>
-  </si>
-  <si>
-    <t>GetCity_1</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 1.</t>
-  </si>
-  <si>
-    <t>http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor</t>
-  </si>
-  <si>
-    <t>/cities/{cityID}</t>
-  </si>
-  <si>
-    <t>AppId=114;SystemId=naukriIndia;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
-  </si>
-  <si>
-    <t>cityID=1</t>
-  </si>
-  <si>
-    <t>CompanyService\\sample.txt</t>
-  </si>
-  <si>
-    <t>{"cityId":1,"city":"Mathura_23","stateId":100,"countryId":1000,"stdCode":10000,"gulfCityId":"180.28","gulfCountryId":180}</t>
-  </si>
-  <si>
-    <t>GetCity_2</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 2.</t>
-  </si>
-  <si>
-    <t>cityID=2</t>
-  </si>
-  <si>
-    <t>CompanyService\\sample.json</t>
-  </si>
-  <si>
-    <t>{"cityId":2,"city":"%%cityname","stateId":31,"countryId":66,"stdCode":562,"gulfCityId":"80.29","gulfCountryId":80}</t>
-  </si>
-  <si>
-    <t>cityname=Agra</t>
-  </si>
-  <si>
-    <t>GetCity_3</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 3.</t>
-  </si>
-  <si>
-    <t>cityID=3</t>
-  </si>
-  <si>
-    <t>{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "cityId": {       "type": "integer"     },     "city": {       "type": "string"     },     "stateId": {       "type": "integer"     },     "countryId": {       "type": "integer"     },     "stdCode": {       "type": "integer"     },     "gulfCityId": {       "type": "string"     },     "gulfCountryId": {       "type": "integer"     }   },   "required": [     "cityId",     "city",     "stateId",     "countryId",     "stdCode",     "gulfCityId",     "gulfCountryId"   ] }</t>
-  </si>
-  <si>
-    <t>CompanyServices\\getcity3.txt</t>
-  </si>
-  <si>
-    <t>stateId=11</t>
-  </si>
-  <si>
-    <t>GetCity_4</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 4.</t>
-  </si>
-  <si>
-    <t>cityID=4</t>
-  </si>
-  <si>
-    <t>CompanyServices\\getcity4.json</t>
-  </si>
-  <si>
-    <t>Cityid=4</t>
-  </si>
-  <si>
-    <t>GetCity_5</t>
-  </si>
-  <si>
-    <t>This test is to validate Get City API with city id value as 5.</t>
-  </si>
-  <si>
-    <t>cityID=5</t>
-  </si>
-  <si>
-    <t>city=Aizawl;stdCode=389</t>
-  </si>
-  <si>
-    <t>PutCity_1</t>
-  </si>
-  <si>
-    <t>This test is to validate Put City API with city id value as 5000.</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>/cities/</t>
-  </si>
-  <si>
-    <t>{"cityId":5000,"city": "Sumant", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
-  </si>
-  <si>
-    <t>PutCity_2</t>
-  </si>
-  <si>
-    <t>This test is to validate Put City API with city id value as 100.</t>
-  </si>
-  <si>
-    <t>{"cityId":%%cityid,"city": "%%cityname", "stateId": 100, "countryId": 1000,"stdCode": 10000,"gulfCityId":"180.28","gulfCountryId":"180"}</t>
-  </si>
-  <si>
-    <t>cityid=100;cityname=gurugram</t>
-  </si>
-  <si>
-    <t>PutCity_3</t>
-  </si>
-  <si>
-    <t>This test is to validate Put City API with city id value as 90.</t>
-  </si>
-  <si>
-    <t>cityid=90;cityname=delhi</t>
-  </si>
-  <si>
-    <t>PutCity_4</t>
-  </si>
-  <si>
-    <t>This test is to validate Put City API with city id value as 80.</t>
-  </si>
-  <si>
-    <t>cityid=80;cityname=noida</t>
-  </si>
-  <si>
-    <t>GetState</t>
-  </si>
-  <si>
-    <t>This test is to validate Get State API with state id value as 31.</t>
-  </si>
-  <si>
-    <t>/states/{stateId}</t>
-  </si>
-  <si>
-    <t>stateId=31</t>
-  </si>
-  <si>
-    <t>{   "$schema": "http://json-schema.org/draft-04/schema#",   "type": "object",   "properties": {     "stateId": {       "type": "integer"    },     "state": {       "type": "string"    },     "countryId": {       "type": "integer"    },     "gstnStateId": {       "type": "string"    },     "igst": {       "type": "number"    },     "cgst": {       "type": "number"     },     "sgst": {       "type": "number"     }   },   "required": [     "stateId",     "state",     "countryId",     "gstnStateId",     "igst",     "cgst",     "sgst"   ] }</t>
-  </si>
-  <si>
-    <t>{"stateId":31,"state":"Uttar Pradesh","countryId":66,"gstnStateId":"9","igst":18.0,"cgst":9.0,"sgst":9.0}</t>
-  </si>
-  <si>
-    <t>uploadImage</t>
-  </si>
-  <si>
-    <t>This test is to validate post API for upload image.</t>
   </si>
   <si>
     <t>https://v2.convertapi.com</t>
@@ -537,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.45703125" customHeight="1"/>
@@ -569,12 +466,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -582,397 +479,13 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1048576" ht="12.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.72265625" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.17" customWidth="1"/>
-    <col min="2" max="2" width="16.35" customWidth="1"/>
-    <col min="3" max="3" width="34.08" customWidth="1"/>
-    <col min="4" max="4" width="24.8" customWidth="1"/>
-    <col min="5" max="5" width="11.17" customWidth="1"/>
-    <col min="6" max="6" width="16.99" customWidth="1"/>
-    <col min="7" max="7" width="24.45" customWidth="1"/>
-    <col min="8" max="8" width="22.16" customWidth="1"/>
-    <col min="9" max="9" width="27.08" customWidth="1"/>
-    <col min="10" max="10" width="16.63" customWidth="1"/>
-    <col min="11" max="11" width="20.17" customWidth="1"/>
-    <col min="12" max="12" width="15.62" customWidth="1"/>
-    <col min="13" max="13" width="19.08" customWidth="1"/>
-    <col min="14" max="14" width="21.44" customWidth="1"/>
-    <col min="19" max="19" width="25.71" customWidth="1"/>
-    <col min="20" max="20" width="27.84" customWidth="1"/>
-    <col min="21" max="21" width="35.19" customWidth="1"/>
-    <col min="22" max="22" width="24.95" customWidth="1"/>
-    <col min="23" max="23" width="32.87" customWidth="1"/>
-    <col min="24" max="24" width="20.71" customWidth="1"/>
-    <col min="25" max="25" width="24" customWidth="1"/>
-    <col min="26" max="26" width="31.62" customWidth="1"/>
-    <col min="27" max="27" width="40.85" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
   <headerFooter>
@@ -984,7 +497,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="AB2" sqref="AB2"/>
@@ -1009,915 +522,832 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1361,6 @@
     <hyperlink ref="F8" r:id="rId7"/>
     <hyperlink ref="F9" r:id="rId8"/>
     <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -1961,168 +1390,168 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2154,168 +1583,168 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/API_Automation_Suite.xlsx
+++ b/API_Automation_Suite.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="APITestSuites" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="CompanyService" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="VideoKYC" state="visible" r:id="rId6"/>
-    <sheet sheetId="5" name="zipp" state="visible" r:id="rId7"/>
+    <sheet sheetId="2" name="FolderAPI" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="CompanyService" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="zipp" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="125">
   <si>
     <t>SuiteNames</t>
   </si>
@@ -25,21 +25,21 @@
     <t>Runables</t>
   </si>
   <si>
+    <t>FolderAPI</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>CompanyService</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>CV Preview</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>VideoKYC</t>
-  </si>
-  <si>
     <t>zipp</t>
   </si>
   <si>
@@ -124,18 +124,129 @@
     <t>ResponseBodyExpressionValidation</t>
   </si>
   <si>
+    <t>rLogin</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>This test is to validate rlogin API.</t>
+  </si>
+  <si>
+    <t>rnd=String(12)</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com</t>
+  </si>
+  <si>
+    <t>/recruit/login</t>
+  </si>
+  <si>
+    <t>AppId=121;SystemId=jobseeker;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*;Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>_did=%%rnd</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>token=auth_token</t>
+  </si>
+  <si>
+    <t>test=naukri.com</t>
+  </si>
+  <si>
+    <t>bs_rnd*len=8;bs_rnd*typeof=String</t>
+  </si>
+  <si>
+    <t>Server=nginx</t>
+  </si>
+  <si>
+    <t>loginService</t>
+  </si>
+  <si>
+    <t>This test is to validate login service API.</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>https://login.recruit.naukri.com</t>
+  </si>
+  <si>
+    <t>/Login/loginService</t>
+  </si>
+  <si>
+    <t>username=company16@yopmail.com;password=P@ssw0rd100;g-recaptcha-response='';URL=https://recruit.naukri.com/;isIE7=false;csrf=%%token</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>strUNID=UNID</t>
+  </si>
+  <si>
+    <t>ER=deleted;ERV=deleted</t>
+  </si>
+  <si>
+    <t>Content-Type=application/json; charset=utf-8</t>
+  </si>
+  <si>
+    <t>createFolder</t>
+  </si>
+  <si>
+    <t>This test is to validate create folder API.</t>
+  </si>
+  <si>
+    <t>foldername=String(11)</t>
+  </si>
+  <si>
+    <t>https://resdex.naukri.com/cloudgateway-resdex/recruiter-data-directories-services/v0/v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/companies/{companyID}/recruiters/{recruiterID}/folders </t>
+  </si>
+  <si>
+    <t>_did=%%rnd;UNID=%%strUNID</t>
+  </si>
+  <si>
+    <t>companyID=6511804;recruiterID=5565791</t>
+  </si>
+  <si>
+    <t>{"allUsers":[],"sharedWith":[],"folderName":"%%foldername"}</t>
+  </si>
+  <si>
+    <t>strfolderId=folderId</t>
+  </si>
+  <si>
+    <t>{"folderId":%%strfolderId,"folderName":"%%foldername"}</t>
+  </si>
+  <si>
+    <t>folderName*len&gt;0;folderName*len&lt;10</t>
+  </si>
+  <si>
+    <t>createfile</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
     <t>GetCity_2</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>This test is to validate Get City API with city id value as 2.</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
     <t>http://services.test2.mnr-services-test2.cluster.infoedge.com/company-services/company-service-refactor</t>
   </si>
   <si>
@@ -148,12 +259,6 @@
     <t>cityID=2</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
     <t>CompanyService\\sample.json</t>
   </si>
   <si>
@@ -272,27 +377,6 @@
   </si>
   <si>
     <t>{"stateId":31,"state":"Uttar Pradesh","countryId":66,"gstnStateId":"9","igst":18.0,"cgst":9.0,"sgst":9.0}</t>
-  </si>
-  <si>
-    <t>uploadImage</t>
-  </si>
-  <si>
-    <t>This test is to validate post API for upload image.</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>https://v2.convertapi.com</t>
-  </si>
-  <si>
-    <t>/upload</t>
-  </si>
-  <si>
-    <t>Content-Type=multipart/form-data;Accept-Encoding=gzip,deflate;cache-control=no-cache;Accept=*/*</t>
-  </si>
-  <si>
-    <t>file=VideoKYC\\files\\Naukri_[3y_0m].doc</t>
   </si>
   <si>
     <t>zipp1</t>
@@ -314,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -333,6 +417,13 @@
     <font>
       <charset val="1"/>
       <color rgb="FF000000"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <charset val="1"/>
+      <color rgb="FF0000FF"/>
       <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -395,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
@@ -412,7 +503,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -466,15 +560,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,6 +580,725 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.72265625" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.17" customWidth="1"/>
+    <col min="2" max="2" width="16.35" customWidth="1"/>
+    <col min="3" max="3" width="34.08" customWidth="1"/>
+    <col min="4" max="4" width="24.8" customWidth="1"/>
+    <col min="5" max="5" width="11.17" customWidth="1"/>
+    <col min="6" max="6" width="16.99" customWidth="1"/>
+    <col min="7" max="7" width="24.45" customWidth="1"/>
+    <col min="8" max="8" width="22.16" customWidth="1"/>
+    <col min="9" max="9" width="27.08" customWidth="1"/>
+    <col min="10" max="10" width="16.63" customWidth="1"/>
+    <col min="11" max="11" width="20.17" customWidth="1"/>
+    <col min="12" max="12" width="15.62" customWidth="1"/>
+    <col min="13" max="13" width="19.08" customWidth="1"/>
+    <col min="14" max="14" width="21.44" customWidth="1"/>
+    <col min="19" max="19" width="25.71" customWidth="1"/>
+    <col min="20" max="20" width="27.84" customWidth="1"/>
+    <col min="21" max="21" width="35.19" customWidth="1"/>
+    <col min="22" max="22" width="24.95" customWidth="1"/>
+    <col min="23" max="23" width="32.87" customWidth="1"/>
+    <col min="24" max="24" width="20.71" customWidth="1"/>
+    <col min="25" max="25" width="24" customWidth="1"/>
+    <col min="26" max="26" width="31.62" customWidth="1"/>
+    <col min="27" max="27" width="40.85" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F8" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
   <headerFooter>
@@ -605,28 +1418,28 @@
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -635,7 +1448,7 @@
         <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -647,10 +1460,10 @@
         <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>36</v>
@@ -674,13 +1487,13 @@
         <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>36</v>
@@ -688,28 +1501,28 @@
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>36</v>
@@ -718,7 +1531,7 @@
         <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>36</v>
@@ -730,10 +1543,10 @@
         <v>36</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -757,13 +1570,13 @@
         <v>36</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>36</v>
@@ -771,28 +1584,28 @@
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>36</v>
@@ -801,23 +1614,23 @@
         <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
@@ -840,13 +1653,13 @@
         <v>36</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>36</v>
@@ -854,28 +1667,28 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>36</v>
@@ -884,7 +1697,7 @@
         <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>36</v>
@@ -896,10 +1709,10 @@
         <v>36</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>36</v>
@@ -923,10 +1736,10 @@
         <v>36</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>36</v>
@@ -937,28 +1750,28 @@
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>36</v>
@@ -970,7 +1783,7 @@
         <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>36</v>
@@ -979,10 +1792,10 @@
         <v>36</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>36</v>
@@ -1020,28 +1833,28 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>36</v>
@@ -1053,19 +1866,19 @@
         <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>36</v>
@@ -1103,28 +1916,28 @@
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>36</v>
@@ -1136,19 +1949,19 @@
         <v>36</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>36</v>
@@ -1186,28 +1999,28 @@
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>36</v>
@@ -1219,19 +2032,19 @@
         <v>36</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>36</v>
@@ -1269,28 +2082,28 @@
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>116</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>36</v>
@@ -1299,7 +2112,7 @@
         <v>36</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>36</v>
@@ -1311,10 +2124,10 @@
         <v>36</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>36</v>
@@ -1338,10 +2151,10 @@
         <v>36</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>36</v>
@@ -1376,199 +2189,6 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="AA1" sqref="AA1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.54" customWidth="1"/>
-    <col min="2" max="2" width="16.35" customWidth="1"/>
-    <col min="3" max="3" width="34.44" customWidth="1"/>
-    <col min="26" max="26" width="22.43" customWidth="1"/>
-    <col min="27" max="27" width="20.89" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -1666,25 +2286,25 @@
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
@@ -1708,10 +2328,10 @@
         <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>36</v>
@@ -1738,7 +2358,7 @@
         <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>36</v>
